--- a/output/tesla_model_y.xlsx
+++ b/output/tesla_model_y.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
@@ -494,46 +494,46 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>18:31:57</t>
+          <t>11:39:38</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.490</t>
+          <t xml:space="preserve"> 47.200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>441 CV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.000 km</t>
+          <t>18.000 km</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Long Range Dual Motor Cam360 Navi LED Display15"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-00e49ac8-3207-4e2c-b68f-92292b2ec3dc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-cam360-navi-led-display15-elettrica-nero-3de7a80f-2e84-4bc3-a18e-208a3c16ef8a</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.900</t>
+          <t xml:space="preserve"> 48.900,-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -548,81 +548,81 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.971 km</t>
+          <t>2.000 km</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Long Range AWD Dual Motor POWER POINT INCLUSA</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-dual-motor-power-point-inclusa-elettrica-bianco-e4f0fac2-734a-4014-8253-e8c612109242</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-00e49ac8-3207-4e2c-b68f-92292b2ec3dc</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.499</t>
+          <t xml:space="preserve"> 54.900</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>540 CV</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.950 km</t>
+          <t>11.000 km</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Performance Dual Motor IVA ESPOSTA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-grigio-e3bf0a70-9a52-46db-a373-762d9aada632</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-iva-esposta-elettrica-nero-7a032b8f-b17d-417d-9925-6bf74b7387ac</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.400</t>
+          <t xml:space="preserve"> 42.400</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>08/2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>252 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.030 km</t>
+          <t>95.000 km</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Model Y Performance AWD</t>
+          <t>Performance AWD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-bianco-6c5ca77f-7d95-4076-ad0f-fc7ae4f233b3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-bianco-17b84830-0041-4fb1-80c7-b2762c22db17</t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-bianco-63a1a2a2-9086-40e8-ad86-26eb293024f8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-bianco-8804e2c0-499d-45bc-9c8d-d53df3f7e725</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.500</t>
+          <t xml:space="preserve"> 45.900</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,189 +676,189 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.000 km</t>
+          <t>44.971 km</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Long Range AWD Dual Motor POWER POINT INCLUSA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-2fa82619-fa4f-43bc-8c34-4c86f5a54c90</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-dual-motor-power-point-inclusa-elettrica-bianco-48199c36-7c46-4046-ba9a-72b82809d811</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 52.400</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>05/2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>436 CV</t>
+          <t>252 CV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.900 km</t>
+          <t>5.030 km</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor awd</t>
+          <t>Model Y Performance AWD</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-bianco-f9e35dab-6092-4166-90b5-5bb9954fd824</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-bianco-3816ccc0-ac51-48cc-ad11-e628673a158c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.900</t>
+          <t xml:space="preserve"> 43.450</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>258 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.500 km</t>
+          <t>55.203 km</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor 4WD</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-4wd-elettrica-bianco-adcc43f4-2a00-4c88-9c69-c66bb534b285</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-grigio-10b0f5b9-480e-46ff-8730-05baeb62146c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.800</t>
+          <t xml:space="preserve"> 46.499</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>59.000 km</t>
+          <t>52.950 km</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dual Motor AWD</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-dual-motor-awd-elettrica-bianco-acb9c4e7-7301-45e7-b6a5-31caf43897fc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-grigio-e3bf0a70-9a52-46db-a373-762d9aada632</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.200</t>
+          <t xml:space="preserve"> 52.400</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>05/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>252 CV</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>55.300 km</t>
+          <t>5.030 km</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Model Y Performance AWD</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-a1d11005-99c5-40b4-b4e7-64a6b05b8182</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-bianco-eb28cc6b-355c-4969-b9a7-4958d7a0d6db</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36.900</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>04/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>534 CV</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22.182 km</t>
+          <t>21.000 km</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-524a40d4-d651-4192-9cda-a248ba2bb53d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-7605d335-4f32-47c5-95ce-52e41aaa31cc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.000</t>
+          <t xml:space="preserve"> 40.900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -868,71 +868,71 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17.000 km</t>
+          <t>14.200 km</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Model Y Single Motor rwd</t>
+          <t>Single Motor rwd</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-nero-e6955501-fc4e-4679-9499-ba5ee075e3a3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-df2b16ba-07d5-43cc-bb83-6e949e3e9384</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.000</t>
+          <t xml:space="preserve"> 37.500</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>325 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.000 km</t>
+          <t>21.000 km</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Single Motor rwd (con eventuale subentro leasing)</t>
+          <t>Single Motor rwd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-con-eventuale-subentro-leasing-elettrica-nero-535404b3-684e-4bcd-b12c-5abeda7500c4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-7dd7163e-e122-4b50-bf7f-da530efb92b6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.000</t>
+          <t xml:space="preserve"> 38.000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>12/2021</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>400 CV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.000 km</t>
+          <t>140.000 km</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -942,110 +942,110 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-rosso-336d040d-1ddb-43da-a61f-1ce12609bba2</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-grigio-692990be-f252-48f7-b067-043cdf3b5ecd</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38.424</t>
+          <t xml:space="preserve"> 45.900</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/2023</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>347 CV</t>
+          <t>258 CV</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0 km</t>
+          <t>21.000 km</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Single Motor rwd - PROMO</t>
+          <t>Long Range Dual Motor awd Listino 58900, IVA ESPOS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-promo-elettrica-bianco-37b5b8e4-4309-4c94-9274-0022e57acbcd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-listino-58900-iva-espos-elettrica-nero-ae210db0-5ae8-4f8e-9a82-16686e8f3e48</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.000</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>09/2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45.000 km</t>
+          <t>10.000 km</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rwd Standard - possibile permuta con Model Y AWD/X</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-standard-possibile-permuta-con-model-y-awd-x-elettrica-bianco-86b48f9f-d4f6-40f1-b9fe-20182e78bac5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-rosso-5f70b6db-517f-44ac-8fe4-aff82a3cfa81</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 51.400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>02/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>252 CV</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.000 km</t>
+          <t>1.000 km</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor + Acceleration Boost</t>
+          <t>Model Y Performance Dual Motor awd 252 CV</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-acceleration-boost-elettrica-nero-b358c38d-1bab-4e9c-9add-4c0c3ff0e9f3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-252-cv-elettrica-nero-cd3db47e-2c85-4086-8fbc-14fdc23d702d</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 37.000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>59.000 km</t>
+          <t>83.000 km</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TESLA MODEL Y Long Range Dual Motor awd</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-tesla-model-y-long-range-dual-motor-awd-elettrica-grigio-080bd30d-07d8-47bf-9f65-6a86b97e5d42</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-rosso-336d040d-1ddb-43da-a61f-1ce12609bba2</t>
         </is>
       </c>
       <c r="N19" s="1" t="n"/>
@@ -1078,12 +1078,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.300</t>
+          <t xml:space="preserve"> 41.900</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>10/2021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1093,61 +1093,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>30.000 km</t>
+          <t>49.000 km</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd UNICO PROP!!!</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-unico-prop-elettrica-bianco-0545fb1c-93ea-4758-93f7-95ea136eedef</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-rosso-a9b371a6-b39c-4ff6-b09b-30ecb25cda48</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.500</t>
+          <t xml:space="preserve"> 43.500</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/2023</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>436 CV</t>
+          <t>514 CV</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.000 km</t>
+          <t>16.000 km</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor AWD</t>
+          <t>Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-369e8ca2-8faf-4f08-85d8-92a212908721</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-e91ad88a-e808-4678-83b2-d80cc6a6308c</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36.900</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1157,24 +1157,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>106.000 km</t>
+          <t>10.000 km</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Long Range Dual Motor + Acceleration Boost</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-d03289f9-6a56-448a-8327-38d44dc39df5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-acceleration-boost-elettrica-nero-b358c38d-1bab-4e9c-9add-4c0c3ff0e9f3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.888</t>
+          <t xml:space="preserve"> 39.999</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1184,94 +1184,98 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>347 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>53 km</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>50.000 km</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>rwd</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-elettrica-nero-bc01534d-15f1-47e7-8110-6a02850859f5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-nero-035dacae-1572-424b-bca1-28fd48c889d8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.990</t>
+          <t xml:space="preserve"> 57.900</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>05/2023</t>
+          <t>10/2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>258 CV</t>
+          <t>436 CV</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21.000 km</t>
+          <t>4.000 km</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Model Y Long Range AWD</t>
+          <t>Model Y Performance Dual Motor AWD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-awd-elettrica-argento-5571a33c-7e59-4302-b73a-078c618a320f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-369e8ca2-8faf-4f08-85d8-92a212908721</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.000</t>
+          <t xml:space="preserve"> 37.000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>436 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29.000 km</t>
+          <t>45.000 km</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>Model Y RWD</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-99fe2900-9821-4f6c-8671-5f311c0bf0d1</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-rwd-elettrica-bianco-fdd6eb85-f2ca-4795-af96-6cb1f31e2e29</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.500</t>
+          <t xml:space="preserve"> 44.950</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>10/2022</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1281,24 +1285,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.900 km</t>
+          <t>42.000 km</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd *** IVA ESPOSTA ***</t>
+          <t>Long Range AWD UNIPRO*GARAN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-iva-esposta-elettrica-blu-azzurro-05d3296d-ba32-4e0a-9ecc-19813a0b856c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-unipro-garan-elettrica-blu-azzurro-a25700ef-d7a9-4bbd-89e0-2b90fd715864</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.261</t>
+          <t xml:space="preserve"> 52.000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1308,332 +1312,332 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>258 CV</t>
+          <t>436 CV</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.000 km</t>
+          <t>29.000 km</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor Awd Autopilot avanzato</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-autopilot-avanzato-elettrica-nero-58903084-87f2-4924-8b28-3b5652321707</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-99fe2900-9821-4f6c-8671-5f311c0bf0d1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 39.900</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24.500 km</t>
+          <t>17.998 km</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>RWD</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-blu-azzurro-c4b138e2-da74-4555-9d62-6e0a583e8e23</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-d8a820d2-e7bb-4154-a2be-389ac9cde0f8</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.000</t>
+          <t xml:space="preserve"> 49.900</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>10/2022</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>534 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>70.000 km</t>
+          <t>50.000 km</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd 534cv Autopilot</t>
+          <t>Model Y Performance AWD</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-534cv-autopilot-elettrica-nero-98753eb2-0cac-4320-bccd-bd7dcff27e9c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-nero-8dc0fc54-3d92-40c8-934a-01fd759eda30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 45.890</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>09/2023</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>514 CV</t>
+          <t>441 CV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.300 km</t>
+          <t>21.552 km</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor AWD</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-blu-azzurro-feaebe02-5d00-4be3-92bb-28961aed4dc5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-eeb502c6-bb4c-4a1c-a443-5ff9ab40c03e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 43.000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>09/2021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28.800 km</t>
+          <t>28.009 km</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor awd</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-e5ac2b29-a96f-4d16-ae1f-70e24b604b1f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-87dcb23d-8bbc-4a31-9f17-23f879da3be8</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.900</t>
+          <t xml:space="preserve"> 39.999</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>12/2021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16.900 km</t>
+          <t>85.000 km</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Performance AWD</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-grigio-41354f69-5789-4d23-a919-f545b0181e2c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-688bf8f2-e676-4743-8d18-8aee618560de</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 42.900</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>02/2022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>405 CV</t>
+          <t>514 CV</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>37.106 km</t>
+          <t>70.000 km</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Dual motor</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-3db88ec7-cd1b-4a9d-a081-9ad75f680024</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-dual-motor-elettrica-bianco-34e59495-32c4-4849-a7c0-40814b259a56</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.000</t>
+          <t xml:space="preserve"> 54.900</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>08/2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>60.000 km</t>
+          <t>16.000 km</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-753ab3c2-6796-4261-91f0-7386afc39972</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-62cbfda5-eb62-41e3-a26f-4b8aa703483f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.900</t>
+          <t xml:space="preserve"> 42.390</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>571 CV</t>
+          <t>514 CV</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15.400 km</t>
+          <t>36.985 km</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>Long Range AWD + Gancio Traino</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-elettrica-nero-29150ba8-7508-42c6-add2-322bc65d579d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-gancio-traino-elettrica-bianco-c950045a-abed-4f9b-954a-ee83072c10d2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>08/2022</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>514 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16.000 km</t>
+          <t>28.800 km</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor AWD</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-e91ad88a-e808-4678-83b2-d80cc6a6308c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-e5ac2b29-a96f-4d16-ae1f-70e24b604b1f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900,-1</t>
+          <t xml:space="preserve"> 53.000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>08/2023</t>
+          <t>05/2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>538 CV</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16.000 km</t>
+          <t>18.000 km</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1643,307 +1647,307 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-62cbfda5-eb62-41e3-a26f-4b8aa703483f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-bianco-0beb2404-87be-43bb-b51f-d1e0841c19df</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.900</t>
+          <t xml:space="preserve"> 40.500</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 km</t>
+          <t>11.572 km</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Single Motor Rwd + Autopilot Avanzato</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-nero-1a7ce2f6-ed65-4587-8372-cdd53dbb110b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-autopilot-avanzato-elettrica-bianco-cfc74e0f-2e79-463f-b027-81ae91e465e8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.900</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>09/2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>514 CV</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21.032 km</t>
+          <t>4.300 km</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>430km autonomia Bianco Perlato, Autopilot avanzato</t>
+          <t>Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-430km-autonomia-bianco-perlato-autopilot-avanzato-elettrica-bianco-bd788678-3d4d-4c1e-b086-9d63fcb17f9d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-blu-azzurro-feaebe02-5d00-4be3-92bb-28961aed4dc5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.000</t>
+          <t xml:space="preserve"> 44.000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>50.000 km</t>
+          <t>81.600 km</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>Long Range dual Motor</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-6169c010-2922-4689-9ab9-abb068a0b259</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-elettrica-blu-azzurro-f59a153e-a0bd-4ae8-9b19-1bf515b069a3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70.000</t>
+          <t xml:space="preserve"> 48.500</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>02/2022</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>146 km</t>
+          <t>52.000 km</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Performance 4WD IN ARRIVO</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-4wd-in-arrivo-elettrica-nero-4679ccf4-c839-44fd-8317-84e8635d317b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-efe98189-9e62-4d78-bb12-311365cbabf7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.900</t>
+          <t xml:space="preserve"> 54.000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>03/2023</t>
+          <t>04/2022</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>252 CV</t>
+          <t>534 CV</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.000 km</t>
+          <t>70.000 km</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Performance AWD</t>
+          <t>Performance Dual Motor awd 534cv Autopilot</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-grigio-dd34cb78-f85f-4e4c-9dd2-8fb9b5701c0c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-534cv-autopilot-elettrica-nero-98753eb2-0cac-4320-bccd-bd7dcff27e9c</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.890</t>
+          <t xml:space="preserve"> 42.400</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>08/2022</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17.998 km</t>
+          <t>95.000 km</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RWD</t>
+          <t>Performance AWD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-bc2b938a-fd11-4cb1-ace3-78ac5e8d4a34</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-bianco-89c1deb5-8981-4c01-b144-817f89c25719</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.450</t>
+          <t xml:space="preserve"> 49.900</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>08/2022</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>530 CV</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>55.203 km</t>
+          <t>33.500 km</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Perfomance</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-grigio-10b0f5b9-480e-46ff-8730-05baeb62146c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-perfomance-elettrica-bianco-617a2c72-a8bd-4b06-892e-f838394759ec</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.900</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>514 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>70.000 km</t>
+          <t>66.000 km</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dual motor</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-dual-motor-elettrica-bianco-34e59495-32c4-4849-a7c0-40814b259a56</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-b29f81b5-3742-4059-a233-d89ba4702c20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.500</t>
+          <t xml:space="preserve"> 47.000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>503 CV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>25.000 km</t>
+          <t>9.900 km</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>LONG RANGE DUAL MOTOR AWD AUTOPILOT AVANZATO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-argento-56dc6761-087b-451d-9c99-07ebc1905ab9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-autopilot-avanzato-elettrica-bianco-ac437f5f-095a-4382-b4b3-0d58399224f0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.000</t>
+          <t xml:space="preserve"> 44.200</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1953,61 +1957,61 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>28.009 km</t>
+          <t>49.270 km</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-87dcb23d-8bbc-4a31-9f17-23f879da3be8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-354a1283-8b28-4afb-a67a-a8ace9cef89c</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.500</t>
+          <t xml:space="preserve"> 46.900,-1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>26.000 km</t>
+          <t>33.000 km</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Model Y Single Motor rwd</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-218b80e1-0a0e-49c7-b43f-a2752c1e6570</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-63eff625-0c20-412c-828f-1c8004a29f8e</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.500</t>
+          <t xml:space="preserve"> 44.999</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>12/2021</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2017,29 +2021,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>38.500 km</t>
+          <t>22.000 km</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-f713cf86-cf18-4f96-815b-13b4a00c4e87</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-blu-azzurro-d2afe3b4-3679-4aab-8fd4-1933af9709c9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.900</t>
+          <t xml:space="preserve"> 44.150</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>09/2021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2049,7 +2053,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>36.500 km</t>
+          <t>48.708 km</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2059,51 +2063,51 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-0a55981c-beac-4952-b01a-61000d23fb55</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-9d83b6ce-597a-409c-aaee-c4b25fe63de7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.000</t>
+          <t xml:space="preserve"> 70.000</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>514 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>23.500 km</t>
+          <t>146 km</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LONG RANGE</t>
+          <t>Performance 4WD IN ARRIVO</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-elettrica-nero-4333ad2f-787a-461a-bf92-2261999d55bd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-4wd-in-arrivo-elettrica-nero-4679ccf4-c839-44fd-8317-84e8635d317b</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.900,-1</t>
+          <t xml:space="preserve"> 43.000</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2113,56 +2117,56 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>300 km</t>
+          <t>66.000 km</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-a1d2041e-8440-48e1-9319-ec975a660b93</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-grigio-5958f858-59ec-458c-a76a-8892c2d2b6e1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 42.900</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>56.000 km</t>
+          <t>21.032 km</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>430km autonomia Bianco Perlato, Autopilot avanzato</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-grigio-5958f858-59ec-458c-a76a-8892c2d2b6e1</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-430km-autonomia-bianco-perlato-autopilot-avanzato-elettrica-bianco-bd788678-3d4d-4c1e-b086-9d63fcb17f9d</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.700</t>
+          <t xml:space="preserve"> 39.900</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2172,66 +2176,66 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>441 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>18.000 km</t>
+          <t>27.950 km</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor Cam.360 Navi LED Display15"</t>
+          <t>Single motor RWD</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-cam-360-navi-led-display15-elettrica-bianco-d770d7ff-e636-4e1f-b295-45ea73c1ada3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-5c69ed40-31f5-4cee-8bdd-28c9968329e4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.500</t>
+          <t xml:space="preserve"> 49.900</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>571 CV</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>30.000 km</t>
+          <t>15.400 km</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-23b6a20f-a089-4288-812e-1a039f57cbc1</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-elettrica-nero-29150ba8-7508-42c6-add2-322bc65d579d</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.000</t>
+          <t xml:space="preserve"> 51.500</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>09/2022</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2241,93 +2245,93 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>45.500 km</t>
+          <t>30.000 km</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd // sensori parcheggio</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-sensori-parcheggio-elettrica-blu-azzurro-62ade2eb-fd37-4764-8b6e-abe36923e5c3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-23b6a20f-a089-4288-812e-1a039f57cbc1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900</t>
+          <t xml:space="preserve"> 44.300</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>24.900 km</t>
+          <t>30.000 km</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Performance AWD</t>
+          <t>Model Y Long Range Dual Motor awd UNICO PROP!!!</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-nero-2b977964-bb01-415f-89a7-89764a5964ef</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-unico-prop-elettrica-bianco-0545fb1c-93ea-4758-93f7-95ea136eedef</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.900</t>
+          <t xml:space="preserve"> 45.900</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>26.890 km</t>
+          <t>33.000 km</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Single motor RWD</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-5c69ed40-31f5-4cee-8bdd-28c9968329e4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-64442af2-01bb-416f-804e-992db46b4759</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.950</t>
+          <t xml:space="preserve"> 44.000</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>02/2022</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2337,29 +2341,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>34.800 km</t>
+          <t>60.000 km</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-fa9df949-ed2e-4f50-bc18-3206eb74b86f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-753ab3c2-6796-4261-91f0-7386afc39972</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.500</t>
+          <t xml:space="preserve"> 54.000</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10/2021</t>
+          <t>04/2022</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2369,61 +2373,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>52.380 km</t>
+          <t>45.500 km</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Model Y Long Range AWD</t>
+          <t>Long Range Dual Motor awd // sensori parcheggio</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-awd-elettrica-bianco-7da0d893-f842-49c4-b000-be19d288eaf8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-sensori-parcheggio-elettrica-blu-azzurro-62ade2eb-fd37-4764-8b6e-abe36923e5c3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.200</t>
+          <t xml:space="preserve"> 42.490</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>09/2021</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>441 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18.000 km</t>
+          <t>79.990 km</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor Cam360 Navi LED Display15"</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-cam360-navi-led-display15-elettrica-nero-3de7a80f-2e84-4bc3-a18e-208a3c16ef8a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-7fe6ec0a-622f-4f7d-a946-86be2d25bcff</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 39.000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>04/2023</t>
+          <t>12/2022</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2433,61 +2437,61 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7.185 km</t>
+          <t>122.000 km</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RWD Model Y rear wheel drive</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-model-y-rearwheeldrive-elettrica-bianco-4fe786ec-de50-4058-8713-886ecb0feab3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-26a0e69d-4202-4df3-9b03-d36796666455</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65.300</t>
+          <t xml:space="preserve"> 44.000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>109 CV</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>19.300 km</t>
+          <t>25.000 km</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Long Range Performance Dual Motor awd</t>
+          <t>Rwd</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-performance-dual-motor-awd-elettrica-bianco-404d40db-fd24-4e2a-845c-85981dc620c0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-566c76c5-228f-47ca-8031-4b6ecf69e212</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.990</t>
+          <t xml:space="preserve"> 46.035</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>10/2021</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2497,125 +2501,125 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1 km</t>
+          <t>52.380 km</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Long Range AWD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-nero-7fc6bef8-3951-4c26-bfa7-520a7b6acccc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-awd-elettrica-bianco-7da0d893-f842-49c4-b000-be19d288eaf8</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.000</t>
+          <t xml:space="preserve"> 40.000</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>462 CV</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.300 km</t>
+          <t>98.956 km</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Model Y Single Motor rwd</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-bianco-bd185220-70d2-4e33-b2e9-25dcabfe73fd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-f3055023-7be8-48ea-ba3f-9c70f07013ba</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.900</t>
+          <t xml:space="preserve"> 56.500</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>450 CV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>85.000 km</t>
+          <t>17.000 km</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-688bf8f2-e676-4743-8d18-8aee618560de</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-bianco-a7b5fbac-d47a-4dd6-8e3a-de564c3a68a5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 46.500</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>09/2022</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.000 km</t>
+          <t>38.500 km</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor awd</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-nero-b29f81b5-3742-4059-a233-d89ba4702c20</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-f713cf86-cf18-4f96-815b-13b4a00c4e87</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 41.000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2625,7 +2629,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12.500 km</t>
+          <t>20.300 km</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2635,243 +2639,243 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-bianco-e60c4b0b-fe98-4fb8-be72-d954020cd7c0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-bianco-bd185220-70d2-4e33-b2e9-25dcabfe73fd</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.900</t>
+          <t xml:space="preserve"> 41.000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>12/2022</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>33.000 km</t>
+          <t>18.000 km</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Single Motor rwd</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-63eff625-0c20-412c-828f-1c8004a29f8e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-586022c6-1cfc-489a-b1ed-bd33c28c00f8</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.900</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>04/2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>46.000 km</t>
+          <t>7.185 km</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor awd</t>
+          <t>RWD Model Y rear wheel drive</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-bianco-bf6a4341-41d7-4fb9-9a5e-5b6eb6d26011</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-model-y-rearwheeldrive-elettrica-bianco-4fe786ec-de50-4058-8713-886ecb0feab3</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43.500</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>09/2022</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>120 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>15.400 km</t>
+          <t>46.000 km</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Single Motor rwd</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-bianco-586022c6-1cfc-489a-b1ed-bd33c28c00f8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-bianco-bf6a4341-41d7-4fb9-9a5e-5b6eb6d26011</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 51.000</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>04/2022</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>122.000 km</t>
+          <t>50.000 km</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-26a0e69d-4202-4df3-9b03-d36796666455</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-6169c010-2922-4689-9ab9-abb068a0b259</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>06/2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>47.000 km</t>
+          <t>7.000 km</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-bianco-7fd6545b-77d6-4dfb-9674-abf31592f99f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-088d2be6-2abe-4f53-885e-1f2808025f14</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.500</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>211 CV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22.600 km</t>
+          <t>50.000 km</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-ad169e1d-1c58-48d3-90e4-a62c16b5f252</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-e404e93a-e531-4490-b122-05d877efb6b3</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.000</t>
+          <t xml:space="preserve"> 48.000</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11/2022</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>109 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>25.000 km</t>
+          <t>38.700 km</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rwd</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-566c76c5-228f-47ca-8031-4b6ecf69e212</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-3149543e-24db-431b-ac47-dd6b2fe7ff75</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 52.900</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2881,29 +2885,29 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>50.000 km</t>
+          <t>47.000 km</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Model Y Performance Dual Motor awd</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-e404e93a-e531-4490-b122-05d877efb6b3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-bianco-7fd6545b-77d6-4dfb-9674-abf31592f99f</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 48.000</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2913,29 +2917,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>20.000 km</t>
+          <t>42.000 km</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd Autopilota Avanzato</t>
+          <t>Dual Motor awd</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-autopilota-avanzato-elettrica-bianco-b80b9061-8cef-4da6-8d97-0808604a823e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-dual-motor-awd-elettrica-bianco-43806b22-c769-4d0e-9aa9-09250edc1de1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.000</t>
+          <t xml:space="preserve"> 48.500</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2945,7 +2949,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>38.700 km</t>
+          <t>55.000 km</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2955,19 +2959,19 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-3149543e-24db-431b-ac47-dd6b2fe7ff75</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-2332a46a-218b-4e77-9ad7-48ab5168cb2a</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11/2021</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2977,61 +2981,61 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>39.000 km</t>
+          <t>1.484 km</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-a763faed-cc4a-4582-a0ae-9cea8e2f786b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-99a8b744-8d3e-4c9d-ae61-422a439bc3ad</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>07/2022</t>
+          <t>09/2021</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>34.000 km</t>
+          <t>49.100 km</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Performance Dual Motor awd</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-bianco-1c98790a-5b82-4088-b944-d726430541e4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-90b59552-6c2a-4111-ba7f-f71cc4224929</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>06/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3041,29 +3045,29 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>59.000 km</t>
+          <t>1.484 km</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-89717a3b-e897-4c48-bd25-8a011d3fab29</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-9ab7eb44-f26e-4b0e-a36f-91f6f171f34a</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.900</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>11/2021</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3073,7 +3077,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>49.100 km</t>
+          <t>39.000 km</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3083,42 +3087,46 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-90b59552-6c2a-4111-ba7f-f71cc4224929</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-a763faed-cc4a-4582-a0ae-9cea8e2f786b</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.700</t>
+          <t xml:space="preserve"> 59.900</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>08/2022</t>
+          <t>07/2021</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>45.000 km</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>28.000 km</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Long Range Dual Motor awd</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-elettrica-bianco-07b34d8b-8f48-47a7-90dc-86d16a1da2fd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-3c0a9a3f-24aa-47f1-904e-acef9f8ef10e</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.000</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3133,29 +3141,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>56.400 km</t>
+          <t>59.000 km</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-9dbdab7d-b521-4201-ba68-818c1a99a0d9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-89717a3b-e897-4c48-bd25-8a011d3fab29</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 50.000</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3165,7 +3173,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.000 km</t>
+          <t>56.400 km</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3175,46 +3183,46 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-088d2be6-2abe-4f53-885e-1f2808025f14</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-bianco-9dbdab7d-b521-4201-ba68-818c1a99a0d9</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>09/2022</t>
+          <t>03/2022</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>208 CV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>12.950 km</t>
+          <t>1.484 km</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Long Range Performance Dual Motor awd</t>
+          <t>Long Range AWD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-performance-dual-motor-awd-elettrica-bianco-995d80f1-d290-4ab4-9c37-4db491b5361e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-1ab40ca1-383a-459b-9742-662f7a559b96</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3229,29 +3237,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.484 km</t>
+          <t>49.900 km</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-99a8b744-8d3e-4c9d-ae61-422a439bc3ad</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-d8c9638d-bde1-4d3c-9101-24c1c44e5e79</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 50.000</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3261,93 +3269,93 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.484 km</t>
+          <t>25.000 km</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-9ab7eb44-f26e-4b0e-a36f-91f6f171f34a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-argento-7f952eb9-789c-42c8-af44-f7ff14cd94aa</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 41.500</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>08/2023</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1.484 km</t>
+          <t>500 km</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Long Range AWD</t>
+          <t>Model Y 50 kWh RWD aut. Sport</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-elettrica-bianco-1ab40ca1-383a-459b-9742-662f7a559b96</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-50-kwh-rwd-aut-sport-elettrica-grigio-c14752b9-7763-426f-9921-afe04cb6fde2</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 43.990</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>05/2023</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>258 CV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>49.900 km</t>
+          <t>25.200 km</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Model Y Long Range AWD</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-d8c9638d-bde1-4d3c-9101-24c1c44e5e79</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-awd-elettrica-argento-5571a33c-7e59-4302-b73a-078c618a320f</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.999</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>06/2022</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3357,29 +3365,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22.000 km</t>
+          <t>20.160 km</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor awd</t>
+          <t>Model Y Long Range Dual Motor awd</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-blu-azzurro-d2afe3b4-3679-4aab-8fd4-1933af9709c9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-grigio-f6c1c190-0ae8-4b27-97ca-5b07b80529b2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.900</t>
+          <t xml:space="preserve"> 40.900</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3389,7 +3397,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>33.000 km</t>
+          <t>55.300 km</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3399,206 +3407,206 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-64442af2-01bb-416f-804e-992db46b4759</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-a1d11005-99c5-40b4-b4e7-64a6b05b8182</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.500</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>09/2022</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>503 CV</t>
+          <t>513 CV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>9.900 km</t>
+          <t>32.000 km</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LONG RANGE DUAL MOTOR AWD AUTOPILOT AVANZATO</t>
+          <t>Model Y Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-autopilot-avanzato-elettrica-bianco-ac437f5f-095a-4382-b4b3-0d58399224f0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-dual-motor-awd-elettrica-bianco-40a75426-8790-45d9-9a0a-38298990d240</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 54.990</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>12/2021</t>
+          <t>11/2023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>252 CV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10.030 km</t>
+          <t>2.900 km</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Long Range Dual Motor AWD</t>
+          <t>Performance + gancio traino,subentro leasing 2,99%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-rosso-e9250220-6377-445d-babc-602c3ee8985a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-gancio-traino-subentro-leasing-2-99-elettrica-nero-0e72ba68-b198-441b-96b2-2769849acdb5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.200</t>
+          <t xml:space="preserve"> 40.000</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>11/2022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>208 CV</t>
+          <t>347 CV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>49.270 km</t>
+          <t>16.000 km</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Model Y Long Range Dual Motor awd</t>
+          <t>Rwd</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-nero-354a1283-8b28-4afb-a67a-a8ace9cef89c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-bianco-ae56c807-4328-47d3-b9d1-259cab992488</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.890</t>
+          <t xml:space="preserve"> 35.000</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>04/2022</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>534 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>43.958 km</t>
+          <t>17.000 km</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Performance AWD</t>
+          <t>Model Y Single Motor rwd</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-awd-elettrica-nero-ee4e96f1-f5de-481d-8b25-2737870706b0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-single-motor-rwd-elettrica-nero-e6955501-fc4e-4679-9499-ba5ee075e3a3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.690</t>
+          <t xml:space="preserve"> 38.678</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>09/2021</t>
+          <t>- (Anno)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>480 CV</t>
+          <t>321 CV</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>35.500 km</t>
+          <t>10 km</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Long Range AWD + 20"</t>
+          <t>RWD   ** PROMO TAN 5,25% **</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-awd-20-elettrica-grigio-8c7b1c6b-c77d-4b4a-b638-f9b71439f6d4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-promo-tan-5-25-elettrica-nero-51cb34d4-6d35-4015-85a4-b45e228f302b</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.900</t>
+          <t xml:space="preserve"> 38.990</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01/2022</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>120 CV</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>25.000 km</t>
+          <t>1.200 km</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Model Y Long Range AWD</t>
+          <t>Single Motor RWD PARI AL NUOVO!1200 km!!</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-awd-elettrica-bianco-085b0fe8-4cc2-4406-a902-35e12072b4b8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-pari-al-nuovo-1200-km-elettrica-nero-fd6498f3-32c9-4d5a-8307-3df832ffe670</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 44.500</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3608,534 +3616,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>211 CV</t>
+          <t>436 CV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>42.000 km</t>
+          <t>25.000 km</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Dual Motor awd</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-dual-motor-awd-elettrica-bianco-43806b22-c769-4d0e-9aa9-09250edc1de1</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 39.000</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>10/2021</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>514 CV</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>36.000 km</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Long Range Dual Motor AWD</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-dual-motor-awd-elettrica-nero-6c5e042c-1835-4c7c-9d87-2f8381b0a5df</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.900</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>03/2023</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>211 CV</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9.900 km</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Performance Dual Motor possibile subentro leasing</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-possibile-subentro-leasing-elettrica-nero-c147073a-0f7c-440f-8fd5-07d8f63c0120</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 40.500</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>03/2022</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>211 CV</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>30.000 km</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Long Range +acceleration boost</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-acceleration-boost-elettrica-bianco-d9862244-6582-4c07-99a2-32b4f549ec23</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 49.000</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>01/2023</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>211 CV</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>14.500 km</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Model Y Performance AWD</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-performance-awd-elettrica-nero-4901f575-391b-487b-9821-7015471426bd</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 46.000</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>05/2023</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>208 CV</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>8.200 km</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Model Y Long Range Dual Motor awd</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-73b24b19-aecd-4897-89ce-309a5f0baa7c</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 53.900</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>06/2022</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>436 CV</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>21.500 km</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Long Range Performance Dual Motor awd</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-long-range-performance-dual-motor-awd-elettrica-nero-40effbca-6e8b-4dad-92a8-f9c12ad7f4d9</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 45.000</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>05/2022</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>211 CV</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>50.000 km</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Performance Dual Motor awd</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-885e8bd5-7e15-4633-9b82-799f891d8254</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 54.990</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>11/2023</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>252 CV</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2.900 km</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Performance + gancio traino,subentro leasing 2,99%</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-gancio-traino-subentro-leasing-2-99-elettrica-nero-0e72ba68-b198-441b-96b2-2769849acdb5</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 47.000</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>01/2023</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>211 CV</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>15.300 km</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Performance Dual Motor awd</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-nero-5270a1a7-4208-496d-bb25-c448aa73a25c</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 37.000</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>11/2022</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>120 CV</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>45.000 km</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Model Y RWD</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-rwd-elettrica-bianco-fdd6eb85-f2ca-4795-af96-6cb1f31e2e29</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 39.900</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>03/2023</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>299 CV</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>11.500 km</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>RWD</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-elettrica-nero-115cefce-1664-4978-b681-23c9276fc7b8</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38.990</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>03/2023</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>120 CV</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>1.200 km</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Single Motor RWD PARI AL NUOVO!1200 km!!</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-pari-al-nuovo-1200-km-elettrica-nero-fd6498f3-32c9-4d5a-8307-3df832ffe670</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 36.500</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>12/2022</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>120 CV</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>36.000 km</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Single Motor rwd</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-nero-49125244-5eb1-4180-99c6-8e7384a3fee6</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38.678,-1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>- (Anno)</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>321 CV</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>10 km</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>RWD   ** PROMO TAN 5,25% **</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-rwd-promo-tan-5-25-elettrica-nero-51cb34d4-6d35-4015-85a4-b45e228f302b</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 37.000</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>11/2022</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>373 CV</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>24.850 km</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Model Y Long Range Dual Motor awd</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-model-y-long-range-dual-motor-awd-elettrica-bianco-4a81748a-3429-4b1a-9643-1c6dbad1a146</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 38.000</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>04/2023</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>120 CV</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>19.179 km</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Single Motor rwd</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-y-single-motor-rwd-elettrica-nero-588466ae-9d8c-4efa-a434-e8abce421cf3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-y-performance-dual-motor-awd-elettrica-argento-56dc6761-087b-451d-9c99-07ebc1905ab9</t>
         </is>
       </c>
     </row>
